--- a/Common/doc/verigen/media/instruction_clock.xlsx
+++ b/Common/doc/verigen/media/instruction_clock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\verigen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB168329-F85F-4FE2-A5E9-1FE5FE8DD9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA5F51B-1ECF-4EEC-B710-53BE948FCAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="45" windowWidth="18390" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="270" windowWidth="18390" windowHeight="15300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="6" r:id="rId1"/>
@@ -99,130 +99,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name 이름을 가지는 클럭을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지정할 동작 속도 값. (MHz 단위)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클럭의 동작속도를 지정합니다.
+    <t>function clock.is_valid(obj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:set_reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:set_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.is_valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock에 동작속도 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock 여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock에 reset 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 이름을 가지는 clock을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock 이름.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock 설명, 주석에 사용된다. (생략 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock에 name 이름의 reset 을 생성합니다.
+이 함수를 사용하여 reset 을 생성하지 않을 경우, 기본 리셋 'nRST' 신호가 자동으로 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset 이름. (active low)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock의 동작속도를 지정합니다.
 이 함수를 사용하여 지정하지 않을 경우, 기본 클럭 100MHz 가 설정됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클럭에 name 이름의 reset 을 생성합니다.
-이 함수를 사용하여 reset 을 생성하지 않을 경우, 기본 리셋 'nRST' 신호가 자동으로 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭 이름.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭 설명, 주석에 사용된다. (생략 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리셋 이름. (active low)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찾을 클럭 이름.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭을 찾습니다.
+    <t>clock을 찾습니다.
 찾지 못할 경우 nil 값을 반환합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>function clock.is_valid(obj)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭 객체가 맞는지 확인합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인할 클럭 객체.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:set_reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭에 리셋 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:set_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭에 동작속도 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.is_valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럭 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member</t>
+    <t>찾을 clock 이름.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock 객체가 맞는지 확인합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인할 clock 객체.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D1552F-D2B8-4AD9-9ECE-3CAF9162E459}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,79 +572,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +658,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +788,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +849,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1EF6B3-56F8-4472-8BF2-44B9BE839153}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,15 +948,15 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Common/doc/verigen/media/instruction_clock.xlsx
+++ b/Common/doc/verigen/media/instruction_clock.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\verigen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA5F51B-1ECF-4EEC-B710-53BE948FCAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5021EC6B-096F-4436-881C-B94A3C19A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="270" windowWidth="18390" windowHeight="15300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="6" r:id="rId1"/>
     <sheet name="new" sheetId="1" r:id="rId2"/>
     <sheet name="set_reset" sheetId="2" r:id="rId3"/>
-    <sheet name="set_speed" sheetId="3" r:id="rId4"/>
-    <sheet name="find" sheetId="4" r:id="rId5"/>
-    <sheet name="is_valid" sheetId="5" r:id="rId6"/>
+    <sheet name="get_reset" sheetId="7" r:id="rId4"/>
+    <sheet name="set_speed" sheetId="3" r:id="rId5"/>
+    <sheet name="set_default" sheetId="8" r:id="rId6"/>
+    <sheet name="find" sheetId="4" r:id="rId7"/>
+    <sheet name="is_valid" sheetId="5" r:id="rId8"/>
+    <sheet name="get_default" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>clock</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +226,56 @@
   </si>
   <si>
     <t>확인할 clock 객체.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:get_reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock에 할당된 reset 을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function clock:get_reset()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock에 할당된 reset을 반환한다.
+할당된 reset 이 없다면, 기본 reset 신호가 반환된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.get_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 클럭을 얻는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:set_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현 클럭을 기본 클럭으로 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function clock:set_default()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 클럭을 기본 클럭으로 설정한다.
+처음 생성하는 클럭을 기본 클럭으로 설정하며, 별도로 특정 클럭을 명시적으로 클럭으로 설정할 때 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function clock.get_default()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 클럭을 반환한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D1552F-D2B8-4AD9-9ECE-3CAF9162E459}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,35 +669,68 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +813,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,8 +870,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A3807-3398-4A4F-B1BD-9BC569F34502}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27B6E5-00A6-4606-85A2-F16E7242B9CD}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -810,6 +896,58 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A3807-3398-4A4F-B1BD-9BC569F34502}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="55.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -844,7 +982,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F725EA3-D526-4AE1-8C1D-CD70760546C0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="55.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77748D98-643E-48A6-98CF-87576597A7B3}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -905,11 +1096,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1EF6B3-56F8-4472-8BF2-44B9BE839153}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -963,4 +1154,56 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A31A6-3A10-49D1-8C10-696596C7A595}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="55.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Common/doc/verigen/media/instruction_clock.xlsx
+++ b/Common/doc/verigen/media/instruction_clock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\verigen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5021EC6B-096F-4436-881C-B94A3C19A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE223B-6F6A-432E-9B64-F91B90A35257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="6" r:id="rId1"/>
@@ -50,26 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>표현식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function clock:new(name, [desc])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>함수 원형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반환값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,14 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정할 동작 속도 값. (MHz 단위)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function clock.is_valid(obj)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,120 +138,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clock 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock에 동작속도 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock에 reset 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name 이름을 가지는 clock을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock 이름.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock 설명, 주석에 사용된다. (생략 가능)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock에 name 이름의 reset 을 생성합니다.
-이 함수를 사용하여 reset 을 생성하지 않을 경우, 기본 리셋 'nRST' 신호가 자동으로 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reset 이름. (active low)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock의 동작속도를 지정합니다.
-이 함수를 사용하여 지정하지 않을 경우, 기본 클럭 100MHz 가 설정됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock을 찾습니다.
-찾지 못할 경우 nil 값을 반환합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찾을 clock 이름.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock 객체가 맞는지 확인합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인할 clock 객체.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:get_reset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clock에 할당된 reset 을 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function clock:get_reset()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clock에 할당된 reset을 반환한다.
-할당된 reset 이 없다면, 기본 reset 신호가 반환된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.get_default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 클럭을 얻는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:set_default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현 클럭을 기본 클럭으로 설정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function clock:set_default()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 클럭을 기본 클럭으로 설정한다.
-처음 생성하는 클럭을 기본 클럭으로 설정하며, 별도로 특정 클럭을 명시적으로 클럭으로 설정할 때 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function clock.get_default()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 클럭을 반환한다.</t>
+    <t>Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Return value</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>clock name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup reset of clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return reset of clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set clock speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set default clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check valid clock object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get defulat clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create clock with name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used for clock descriptions and comments. (can skip.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a reset on the clock.
+If reset is not generated using this function, the default reset 'nRST' signal is automatically used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset name. (active low)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returns the reset assigned to clock.
+If no reset is assigned, the default reset signal is returned.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specifies the operating speed of the clock.
+If not specified using this function, the default clock 100MHz is set.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed value of the clock. (MHz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the current clock as the default clock.
+The clock that is created first is set as the default clock, and it is used when a specific clock is explicitly set as the clock separately.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the clock.
+Returns 'nil' if not found.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The clock name to find.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check that the clock object is correct.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A clock object to check.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returns the default clock.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,16 +294,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -315,11 +325,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,8 +359,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="계산" xfId="1" builtinId="22"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,9 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D1552F-D2B8-4AD9-9ECE-3CAF9162E459}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -625,112 +653,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>51</v>
+      <c r="A7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +772,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,23 +783,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -779,26 +807,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +841,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,42 +852,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -871,6 +899,119 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB27B6E5-00A6-4606-85A2-F16E7242B9CD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="55.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A3807-3398-4A4F-B1BD-9BC569F34502}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="55.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F725EA3-D526-4AE1-8C1D-CD70760546C0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -885,147 +1026,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3A3807-3398-4A4F-B1BD-9BC569F34502}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="55.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F725EA3-D526-4AE1-8C1D-CD70760546C0}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="55.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1051,23 +1079,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -1075,18 +1103,18 @@
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1112,42 +1140,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A31A6-3A10-49D1-8C10-696596C7A595}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1172,23 +1200,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -1196,7 +1224,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>56</v>

--- a/Common/doc/verigen/media/instruction_clock.xlsx
+++ b/Common/doc/verigen/media/instruction_clock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Profiles\Common\doc\verigen\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE223B-6F6A-432E-9B64-F91B90A35257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB06A0D-CC11-4C06-BEEB-CEF0DEDDF28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,13 @@
       <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -359,7 +366,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="계산" xfId="1" builtinId="22"/>
@@ -645,13 +652,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -662,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -673,7 +680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -684,7 +691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -695,7 +702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -706,7 +713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -717,7 +724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -728,7 +735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -739,7 +746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -750,7 +757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -775,13 +782,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -789,7 +796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -797,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -805,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -813,7 +820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -821,7 +828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -844,13 +851,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -858,7 +865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -866,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -874,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="49.5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -882,7 +889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,13 +912,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -919,7 +926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -927,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -935,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="33">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -957,13 +964,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -971,7 +978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -979,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -987,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="49.5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,13 +1025,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1032,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1040,7 +1047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="66">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1071,13 +1078,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1085,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1101,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="33">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,13 +1139,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1162,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1192,13 +1199,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
